--- a/data/최종_풍력.xlsx
+++ b/data/최종_풍력.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qorwh\Documents\GitHub\energy-estimator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qorwh\Documents\GitHub\energy-estimator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E1001ED-8F43-45C8-AE7C-211C620230C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D4B1F9-85ED-4F0F-9425-D9CD85264A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,17 +49,8 @@
     <t>설비용량(kW)</t>
   </si>
   <si>
-    <t>면적(m₂)</t>
-  </si>
-  <si>
     <t>주소</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
   </si>
   <si>
     <t>날짜</t>
@@ -227,12 +216,24 @@
   <si>
     <t>인천광역시 옹진군 영흥면 영흥남로293번길 52</t>
   </si>
+  <si>
+    <t>위도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>면적(m₂)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,10 +612,10 @@
   <dimension ref="A1:AB181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -623,7 +624,7 @@
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -634,87 +635,87 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="B2" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
       </c>
       <c r="C2">
         <v>20000</v>
@@ -723,7 +724,7 @@
         <v>678</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>33.439305699999998</v>
@@ -796,12 +797,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>20000</v>
@@ -810,7 +811,7 @@
         <v>678</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>33.439305699999998</v>
@@ -883,12 +884,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>20000</v>
@@ -897,7 +898,7 @@
         <v>678</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>33.439305699999998</v>
@@ -970,12 +971,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>20000</v>
@@ -984,7 +985,7 @@
         <v>678</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>33.439305699999998</v>
@@ -1057,12 +1058,12 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>20000</v>
@@ -1071,7 +1072,7 @@
         <v>678</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>33.439305699999998</v>
@@ -1144,12 +1145,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>20000</v>
@@ -1158,7 +1159,7 @@
         <v>678</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>33.439305699999998</v>
@@ -1231,12 +1232,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>20000</v>
@@ -1245,7 +1246,7 @@
         <v>678</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>33.439305699999998</v>
@@ -1318,12 +1319,12 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>20000</v>
@@ -1332,7 +1333,7 @@
         <v>678</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>33.439305699999998</v>
@@ -1405,12 +1406,12 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>20000</v>
@@ -1419,7 +1420,7 @@
         <v>678</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10">
         <v>33.439305699999998</v>
@@ -1492,12 +1493,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>20000</v>
@@ -1506,7 +1507,7 @@
         <v>678</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>33.439305699999998</v>
@@ -1579,12 +1580,12 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>20000</v>
@@ -1593,7 +1594,7 @@
         <v>678</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F12">
         <v>33.439305699999998</v>
@@ -1666,12 +1667,12 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>20000</v>
@@ -1680,7 +1681,7 @@
         <v>678</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F13">
         <v>33.439305699999998</v>
@@ -1753,12 +1754,12 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>20000</v>
@@ -1767,7 +1768,7 @@
         <v>678</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F14">
         <v>33.439305699999998</v>
@@ -1840,12 +1841,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>20000</v>
@@ -1854,7 +1855,7 @@
         <v>678</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F15">
         <v>33.439305699999998</v>
@@ -1927,12 +1928,12 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>20000</v>
@@ -1941,7 +1942,7 @@
         <v>678</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F16">
         <v>33.439305699999998</v>
@@ -2014,12 +2015,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>20000</v>
@@ -2028,7 +2029,7 @@
         <v>678</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F17">
         <v>33.439305699999998</v>
@@ -2101,12 +2102,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>20000</v>
@@ -2115,7 +2116,7 @@
         <v>678</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F18">
         <v>33.439305699999998</v>
@@ -2188,12 +2189,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>20000</v>
@@ -2202,7 +2203,7 @@
         <v>678</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F19">
         <v>33.439305699999998</v>
@@ -2275,12 +2276,12 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>20000</v>
@@ -2289,7 +2290,7 @@
         <v>678</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F20">
         <v>33.439305699999998</v>
@@ -2362,12 +2363,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>20000</v>
@@ -2376,7 +2377,7 @@
         <v>678</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F21">
         <v>33.439305699999998</v>
@@ -2449,12 +2450,12 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>20000</v>
@@ -2463,7 +2464,7 @@
         <v>678</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F22">
         <v>33.439305699999998</v>
@@ -2536,12 +2537,12 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>20000</v>
@@ -2550,7 +2551,7 @@
         <v>678</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F23">
         <v>33.439305699999998</v>
@@ -2623,12 +2624,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>20000</v>
@@ -2637,7 +2638,7 @@
         <v>678</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F24">
         <v>33.439305699999998</v>
@@ -2710,12 +2711,12 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>20000</v>
@@ -2724,7 +2725,7 @@
         <v>678</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F25">
         <v>33.439305699999998</v>
@@ -2797,12 +2798,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>18000</v>
@@ -2811,7 +2812,7 @@
         <v>3252</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F26">
         <v>34.774269799999999</v>
@@ -2884,12 +2885,12 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>18000</v>
@@ -2898,7 +2899,7 @@
         <v>3252</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F27">
         <v>34.774269799999999</v>
@@ -2971,12 +2972,12 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>18000</v>
@@ -2985,7 +2986,7 @@
         <v>3252</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F28">
         <v>34.774269799999999</v>
@@ -3058,12 +3059,12 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>18000</v>
@@ -3072,7 +3073,7 @@
         <v>3252</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F29">
         <v>34.774269799999999</v>
@@ -3145,12 +3146,12 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>18000</v>
@@ -3159,7 +3160,7 @@
         <v>3252</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F30">
         <v>34.774269799999999</v>
@@ -3232,12 +3233,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>18000</v>
@@ -3246,7 +3247,7 @@
         <v>3252</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F31">
         <v>34.774269799999999</v>
@@ -3319,12 +3320,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>18000</v>
@@ -3333,7 +3334,7 @@
         <v>3252</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F32">
         <v>34.774269799999999</v>
@@ -3406,12 +3407,12 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C33">
         <v>18000</v>
@@ -3420,7 +3421,7 @@
         <v>3252</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F33">
         <v>34.774269799999999</v>
@@ -3493,12 +3494,12 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C34">
         <v>18000</v>
@@ -3507,7 +3508,7 @@
         <v>3252</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F34">
         <v>34.774269799999999</v>
@@ -3580,12 +3581,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C35">
         <v>18000</v>
@@ -3594,7 +3595,7 @@
         <v>3252</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F35">
         <v>34.774269799999999</v>
@@ -3667,12 +3668,12 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C36">
         <v>18000</v>
@@ -3681,7 +3682,7 @@
         <v>3252</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F36">
         <v>34.774269799999999</v>
@@ -3754,12 +3755,12 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C37">
         <v>18000</v>
@@ -3768,7 +3769,7 @@
         <v>3252</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F37">
         <v>34.774269799999999</v>
@@ -3841,12 +3842,12 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C38">
         <v>21000</v>
@@ -3855,7 +3856,7 @@
         <v>4578</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F38">
         <v>33.335531099999997</v>
@@ -3928,12 +3929,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C39">
         <v>21000</v>
@@ -3942,7 +3943,7 @@
         <v>4578</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F39">
         <v>33.335531099999997</v>
@@ -4015,12 +4016,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C40">
         <v>21000</v>
@@ -4029,7 +4030,7 @@
         <v>4578</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F40">
         <v>33.335531099999997</v>
@@ -4102,12 +4103,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C41">
         <v>21000</v>
@@ -4116,7 +4117,7 @@
         <v>4578</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F41">
         <v>33.335531099999997</v>
@@ -4189,12 +4190,12 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <v>21000</v>
@@ -4203,7 +4204,7 @@
         <v>4578</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F42">
         <v>33.335531099999997</v>
@@ -4276,12 +4277,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C43">
         <v>21000</v>
@@ -4290,7 +4291,7 @@
         <v>4578</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F43">
         <v>33.335531099999997</v>
@@ -4363,12 +4364,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>21000</v>
@@ -4377,7 +4378,7 @@
         <v>4578</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F44">
         <v>33.335531099999997</v>
@@ -4450,12 +4451,12 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>21000</v>
@@ -4464,7 +4465,7 @@
         <v>4578</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F45">
         <v>33.335531099999997</v>
@@ -4537,12 +4538,12 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>21000</v>
@@ -4551,7 +4552,7 @@
         <v>4578</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F46">
         <v>33.335531099999997</v>
@@ -4624,12 +4625,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C47">
         <v>21000</v>
@@ -4638,7 +4639,7 @@
         <v>4578</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F47">
         <v>33.335531099999997</v>
@@ -4711,12 +4712,12 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C48">
         <v>21000</v>
@@ -4725,7 +4726,7 @@
         <v>4578</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F48">
         <v>33.335531099999997</v>
@@ -4798,12 +4799,12 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C49">
         <v>21000</v>
@@ -4812,7 +4813,7 @@
         <v>4578</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F49">
         <v>33.335531099999997</v>
@@ -4885,12 +4886,12 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C50">
         <v>21000</v>
@@ -4899,7 +4900,7 @@
         <v>4578</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F50">
         <v>33.335531099999997</v>
@@ -4972,12 +4973,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C51">
         <v>21000</v>
@@ -4986,7 +4987,7 @@
         <v>4578</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F51">
         <v>33.335531099999997</v>
@@ -5059,12 +5060,12 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C52">
         <v>21000</v>
@@ -5073,7 +5074,7 @@
         <v>4578</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F52">
         <v>33.335531099999997</v>
@@ -5146,12 +5147,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C53">
         <v>21000</v>
@@ -5160,7 +5161,7 @@
         <v>4578</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F53">
         <v>33.335531099999997</v>
@@ -5233,12 +5234,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C54">
         <v>21000</v>
@@ -5247,7 +5248,7 @@
         <v>4578</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F54">
         <v>33.335531099999997</v>
@@ -5320,12 +5321,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C55">
         <v>21000</v>
@@ -5334,7 +5335,7 @@
         <v>4578</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F55">
         <v>33.335531099999997</v>
@@ -5407,12 +5408,12 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C56">
         <v>21000</v>
@@ -5421,7 +5422,7 @@
         <v>4578</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F56">
         <v>33.335531099999997</v>
@@ -5494,12 +5495,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C57">
         <v>21000</v>
@@ -5508,7 +5509,7 @@
         <v>4578</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F57">
         <v>33.335531099999997</v>
@@ -5581,12 +5582,12 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C58">
         <v>21000</v>
@@ -5595,7 +5596,7 @@
         <v>4578</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F58">
         <v>33.335531099999997</v>
@@ -5668,12 +5669,12 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C59">
         <v>21000</v>
@@ -5682,7 +5683,7 @@
         <v>4578</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F59">
         <v>33.335531099999997</v>
@@ -5755,12 +5756,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C60">
         <v>21000</v>
@@ -5769,7 +5770,7 @@
         <v>4578</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F60">
         <v>33.335531099999997</v>
@@ -5842,12 +5843,12 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>21000</v>
@@ -5856,7 +5857,7 @@
         <v>4578</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F61">
         <v>33.335531099999997</v>
@@ -5929,12 +5930,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C62">
         <v>16000</v>
@@ -5943,7 +5944,7 @@
         <v>89112</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F62">
         <v>35.090607900000002</v>
@@ -6016,12 +6017,12 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C63">
         <v>16000</v>
@@ -6030,7 +6031,7 @@
         <v>89112</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F63">
         <v>35.090607900000002</v>
@@ -6103,12 +6104,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C64">
         <v>16000</v>
@@ -6117,7 +6118,7 @@
         <v>89112</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F64">
         <v>35.090607900000002</v>
@@ -6190,12 +6191,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C65">
         <v>16000</v>
@@ -6204,7 +6205,7 @@
         <v>89112</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F65">
         <v>35.090607900000002</v>
@@ -6277,12 +6278,12 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C66">
         <v>16000</v>
@@ -6291,7 +6292,7 @@
         <v>89112</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F66">
         <v>35.090607900000002</v>
@@ -6364,12 +6365,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C67">
         <v>16000</v>
@@ -6378,7 +6379,7 @@
         <v>89112</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F67">
         <v>35.090607900000002</v>
@@ -6451,12 +6452,12 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C68">
         <v>16000</v>
@@ -6465,7 +6466,7 @@
         <v>89112</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F68">
         <v>35.090607900000002</v>
@@ -6538,12 +6539,12 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C69">
         <v>16000</v>
@@ -6552,7 +6553,7 @@
         <v>89112</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F69">
         <v>35.090607900000002</v>
@@ -6625,12 +6626,12 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C70">
         <v>16000</v>
@@ -6639,7 +6640,7 @@
         <v>89112</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F70">
         <v>35.090607900000002</v>
@@ -6712,12 +6713,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C71">
         <v>16000</v>
@@ -6726,7 +6727,7 @@
         <v>89112</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F71">
         <v>35.090607900000002</v>
@@ -6799,12 +6800,12 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C72">
         <v>16000</v>
@@ -6813,7 +6814,7 @@
         <v>89112</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F72">
         <v>35.090607900000002</v>
@@ -6832,12 +6833,12 @@
         <v>96901.580400000006</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C73">
         <v>16000</v>
@@ -6846,7 +6847,7 @@
         <v>89112</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F73">
         <v>35.090607900000002</v>
@@ -6919,12 +6920,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74">
         <v>15000</v>
@@ -6933,7 +6934,7 @@
         <v>3315</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F74">
         <v>33.382821100000001</v>
@@ -7006,12 +7007,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C75">
         <v>15000</v>
@@ -7020,7 +7021,7 @@
         <v>3315</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F75">
         <v>33.382821100000001</v>
@@ -7093,12 +7094,12 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C76">
         <v>15000</v>
@@ -7107,7 +7108,7 @@
         <v>3315</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F76">
         <v>33.382821100000001</v>
@@ -7180,12 +7181,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C77">
         <v>15000</v>
@@ -7194,7 +7195,7 @@
         <v>3315</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F77">
         <v>33.382821100000001</v>
@@ -7267,12 +7268,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C78">
         <v>15000</v>
@@ -7281,7 +7282,7 @@
         <v>3315</v>
       </c>
       <c r="E78" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F78">
         <v>33.382821100000001</v>
@@ -7354,12 +7355,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C79">
         <v>15000</v>
@@ -7368,7 +7369,7 @@
         <v>3315</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F79">
         <v>33.382821100000001</v>
@@ -7441,12 +7442,12 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C80">
         <v>15000</v>
@@ -7455,7 +7456,7 @@
         <v>3315</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F80">
         <v>33.382821100000001</v>
@@ -7528,12 +7529,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C81">
         <v>15000</v>
@@ -7542,7 +7543,7 @@
         <v>3315</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F81">
         <v>33.382821100000001</v>
@@ -7615,12 +7616,12 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C82">
         <v>15000</v>
@@ -7629,7 +7630,7 @@
         <v>3315</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F82">
         <v>33.382821100000001</v>
@@ -7702,12 +7703,12 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C83">
         <v>15000</v>
@@ -7716,7 +7717,7 @@
         <v>3315</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F83">
         <v>33.382821100000001</v>
@@ -7789,12 +7790,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C84">
         <v>15000</v>
@@ -7803,7 +7804,7 @@
         <v>3315</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F84">
         <v>33.382821100000001</v>
@@ -7876,12 +7877,12 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C85">
         <v>15000</v>
@@ -7890,7 +7891,7 @@
         <v>3315</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F85">
         <v>33.382821100000001</v>
@@ -7963,12 +7964,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" t="s">
         <v>38</v>
-      </c>
-      <c r="B86" t="s">
-        <v>41</v>
       </c>
       <c r="C86">
         <v>32000</v>
@@ -7977,7 +7978,7 @@
         <v>1378704</v>
       </c>
       <c r="E86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F86">
         <v>33.528854899999999</v>
@@ -8050,12 +8051,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" t="s">
         <v>38</v>
-      </c>
-      <c r="B87" t="s">
-        <v>41</v>
       </c>
       <c r="C87">
         <v>32000</v>
@@ -8064,7 +8065,7 @@
         <v>1378704</v>
       </c>
       <c r="E87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F87">
         <v>33.528854899999999</v>
@@ -8137,12 +8138,12 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" t="s">
         <v>38</v>
-      </c>
-      <c r="B88" t="s">
-        <v>41</v>
       </c>
       <c r="C88">
         <v>32000</v>
@@ -8151,7 +8152,7 @@
         <v>1378704</v>
       </c>
       <c r="E88" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F88">
         <v>33.528854899999999</v>
@@ -8224,12 +8225,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" t="s">
         <v>38</v>
-      </c>
-      <c r="B89" t="s">
-        <v>41</v>
       </c>
       <c r="C89">
         <v>32000</v>
@@ -8238,7 +8239,7 @@
         <v>1378704</v>
       </c>
       <c r="E89" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F89">
         <v>33.528854899999999</v>
@@ -8311,12 +8312,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90" t="s">
         <v>38</v>
-      </c>
-      <c r="B90" t="s">
-        <v>41</v>
       </c>
       <c r="C90">
         <v>32000</v>
@@ -8325,7 +8326,7 @@
         <v>1378704</v>
       </c>
       <c r="E90" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F90">
         <v>33.528854899999999</v>
@@ -8398,12 +8399,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" t="s">
         <v>38</v>
-      </c>
-      <c r="B91" t="s">
-        <v>41</v>
       </c>
       <c r="C91">
         <v>32000</v>
@@ -8412,7 +8413,7 @@
         <v>1378704</v>
       </c>
       <c r="E91" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F91">
         <v>33.528854899999999</v>
@@ -8485,12 +8486,12 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" t="s">
         <v>38</v>
-      </c>
-      <c r="B92" t="s">
-        <v>41</v>
       </c>
       <c r="C92">
         <v>32000</v>
@@ -8499,7 +8500,7 @@
         <v>1378704</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F92">
         <v>33.528854899999999</v>
@@ -8572,12 +8573,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" t="s">
         <v>38</v>
-      </c>
-      <c r="B93" t="s">
-        <v>41</v>
       </c>
       <c r="C93">
         <v>32000</v>
@@ -8586,7 +8587,7 @@
         <v>1378704</v>
       </c>
       <c r="E93" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F93">
         <v>33.528854899999999</v>
@@ -8659,12 +8660,12 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94" t="s">
         <v>38</v>
-      </c>
-      <c r="B94" t="s">
-        <v>41</v>
       </c>
       <c r="C94">
         <v>32000</v>
@@ -8673,7 +8674,7 @@
         <v>1378704</v>
       </c>
       <c r="E94" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F94">
         <v>33.528854899999999</v>
@@ -8746,12 +8747,12 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95" t="s">
         <v>38</v>
-      </c>
-      <c r="B95" t="s">
-        <v>41</v>
       </c>
       <c r="C95">
         <v>32000</v>
@@ -8760,7 +8761,7 @@
         <v>1378704</v>
       </c>
       <c r="E95" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F95">
         <v>33.528854899999999</v>
@@ -8833,12 +8834,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" t="s">
         <v>38</v>
-      </c>
-      <c r="B96" t="s">
-        <v>41</v>
       </c>
       <c r="C96">
         <v>32000</v>
@@ -8847,7 +8848,7 @@
         <v>1378704</v>
       </c>
       <c r="E96" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F96">
         <v>33.528854899999999</v>
@@ -8920,12 +8921,12 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" t="s">
         <v>38</v>
-      </c>
-      <c r="B97" t="s">
-        <v>41</v>
       </c>
       <c r="C97">
         <v>32000</v>
@@ -8934,7 +8935,7 @@
         <v>1378704</v>
       </c>
       <c r="E97" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F97">
         <v>33.528854899999999</v>
@@ -9007,12 +9008,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C98">
         <v>1700</v>
@@ -9021,7 +9022,7 @@
         <v>2338</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F98">
         <v>33.345019499999999</v>
@@ -9094,12 +9095,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C99">
         <v>1700</v>
@@ -9108,7 +9109,7 @@
         <v>2338</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F99">
         <v>33.345019499999999</v>
@@ -9181,12 +9182,12 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C100">
         <v>1700</v>
@@ -9195,7 +9196,7 @@
         <v>2338</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F100">
         <v>33.345019499999999</v>
@@ -9268,12 +9269,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C101">
         <v>1700</v>
@@ -9282,7 +9283,7 @@
         <v>2338</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F101">
         <v>33.345019499999999</v>
@@ -9355,12 +9356,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C102">
         <v>1700</v>
@@ -9369,7 +9370,7 @@
         <v>2338</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F102">
         <v>33.345019499999999</v>
@@ -9442,12 +9443,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C103">
         <v>1700</v>
@@ -9456,7 +9457,7 @@
         <v>2338</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F103">
         <v>33.345019499999999</v>
@@ -9529,12 +9530,12 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C104">
         <v>1700</v>
@@ -9543,7 +9544,7 @@
         <v>2338</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F104">
         <v>33.345019499999999</v>
@@ -9616,12 +9617,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C105">
         <v>1700</v>
@@ -9630,7 +9631,7 @@
         <v>2338</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F105">
         <v>33.345019499999999</v>
@@ -9703,12 +9704,12 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C106">
         <v>1700</v>
@@ -9717,7 +9718,7 @@
         <v>2338</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F106">
         <v>33.345019499999999</v>
@@ -9790,12 +9791,12 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C107">
         <v>1700</v>
@@ -9804,7 +9805,7 @@
         <v>2338</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F107">
         <v>33.345019499999999</v>
@@ -9877,12 +9878,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C108">
         <v>1700</v>
@@ -9891,7 +9892,7 @@
         <v>2338</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F108">
         <v>33.345019499999999</v>
@@ -9964,12 +9965,12 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C109">
         <v>1700</v>
@@ -9978,7 +9979,7 @@
         <v>2338</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F109">
         <v>33.345019499999999</v>
@@ -10051,12 +10052,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C110">
         <v>750</v>
@@ -10065,7 +10066,7 @@
         <v>3633</v>
       </c>
       <c r="E110" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F110">
         <v>33.526385500000004</v>
@@ -10138,12 +10139,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B111" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C111">
         <v>750</v>
@@ -10152,7 +10153,7 @@
         <v>3633</v>
       </c>
       <c r="E111" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F111">
         <v>33.526385500000004</v>
@@ -10225,12 +10226,12 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B112" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C112">
         <v>750</v>
@@ -10239,7 +10240,7 @@
         <v>3633</v>
       </c>
       <c r="E112" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F112">
         <v>33.526385500000004</v>
@@ -10312,12 +10313,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B113" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C113">
         <v>750</v>
@@ -10326,7 +10327,7 @@
         <v>3633</v>
       </c>
       <c r="E113" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F113">
         <v>33.526385500000004</v>
@@ -10399,12 +10400,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B114" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C114">
         <v>750</v>
@@ -10413,7 +10414,7 @@
         <v>3633</v>
       </c>
       <c r="E114" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F114">
         <v>33.526385500000004</v>
@@ -10486,12 +10487,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B115" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C115">
         <v>750</v>
@@ -10500,7 +10501,7 @@
         <v>3633</v>
       </c>
       <c r="E115" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F115">
         <v>33.526385500000004</v>
@@ -10573,12 +10574,12 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B116" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C116">
         <v>750</v>
@@ -10587,7 +10588,7 @@
         <v>3633</v>
       </c>
       <c r="E116" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F116">
         <v>33.526385500000004</v>
@@ -10660,12 +10661,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B117" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C117">
         <v>750</v>
@@ -10674,7 +10675,7 @@
         <v>3633</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F117">
         <v>33.526385500000004</v>
@@ -10747,12 +10748,12 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B118" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C118">
         <v>750</v>
@@ -10761,7 +10762,7 @@
         <v>3633</v>
       </c>
       <c r="E118" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F118">
         <v>33.526385500000004</v>
@@ -10834,12 +10835,12 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B119" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C119">
         <v>750</v>
@@ -10848,7 +10849,7 @@
         <v>3633</v>
       </c>
       <c r="E119" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F119">
         <v>33.526385500000004</v>
@@ -10921,12 +10922,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B120" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C120">
         <v>750</v>
@@ -10935,7 +10936,7 @@
         <v>3633</v>
       </c>
       <c r="E120" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F120">
         <v>33.526385500000004</v>
@@ -11008,12 +11009,12 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B121" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C121">
         <v>750</v>
@@ -11022,7 +11023,7 @@
         <v>3633</v>
       </c>
       <c r="E121" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F121">
         <v>33.526385500000004</v>
@@ -11095,12 +11096,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C122">
         <v>11550</v>
@@ -11109,7 +11110,7 @@
         <v>198654</v>
       </c>
       <c r="E122" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F122">
         <v>36.098289600000001</v>
@@ -11182,12 +11183,12 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B123" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C123">
         <v>11550</v>
@@ -11196,7 +11197,7 @@
         <v>198654</v>
       </c>
       <c r="E123" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F123">
         <v>36.098289600000001</v>
@@ -11269,12 +11270,12 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C124">
         <v>11550</v>
@@ -11283,7 +11284,7 @@
         <v>198654</v>
       </c>
       <c r="E124" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F124">
         <v>36.098289600000001</v>
@@ -11356,12 +11357,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B125" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C125">
         <v>11550</v>
@@ -11370,7 +11371,7 @@
         <v>198654</v>
       </c>
       <c r="E125" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F125">
         <v>36.098289600000001</v>
@@ -11443,12 +11444,12 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B126" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C126">
         <v>11550</v>
@@ -11457,7 +11458,7 @@
         <v>198654</v>
       </c>
       <c r="E126" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F126">
         <v>36.098289600000001</v>
@@ -11530,12 +11531,12 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B127" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C127">
         <v>11550</v>
@@ -11544,7 +11545,7 @@
         <v>198654</v>
       </c>
       <c r="E127" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F127">
         <v>36.098289600000001</v>
@@ -11617,12 +11618,12 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B128" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C128">
         <v>11550</v>
@@ -11631,7 +11632,7 @@
         <v>198654</v>
       </c>
       <c r="E128" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F128">
         <v>36.098289600000001</v>
@@ -11704,12 +11705,12 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C129">
         <v>11550</v>
@@ -11718,7 +11719,7 @@
         <v>198654</v>
       </c>
       <c r="E129" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F129">
         <v>36.098289600000001</v>
@@ -11791,12 +11792,12 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B130" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C130">
         <v>11550</v>
@@ -11805,7 +11806,7 @@
         <v>198654</v>
       </c>
       <c r="E130" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F130">
         <v>36.098289600000001</v>
@@ -11878,12 +11879,12 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B131" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C131">
         <v>11550</v>
@@ -11892,7 +11893,7 @@
         <v>198654</v>
       </c>
       <c r="E131" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F131">
         <v>36.098289600000001</v>
@@ -11965,12 +11966,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B132" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C132">
         <v>11550</v>
@@ -11979,7 +11980,7 @@
         <v>198654</v>
       </c>
       <c r="E132" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F132">
         <v>36.098289600000001</v>
@@ -12052,12 +12053,12 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B133" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C133">
         <v>11550</v>
@@ -12066,7 +12067,7 @@
         <v>198654</v>
       </c>
       <c r="E133" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F133">
         <v>36.098289600000001</v>
@@ -12139,12 +12140,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C134">
         <v>750</v>
@@ -12153,7 +12154,7 @@
         <v>417558</v>
       </c>
       <c r="E134" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F134">
         <v>34.9109701</v>
@@ -12226,12 +12227,12 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C135">
         <v>750</v>
@@ -12240,7 +12241,7 @@
         <v>417558</v>
       </c>
       <c r="E135" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F135">
         <v>34.9109701</v>
@@ -12313,12 +12314,12 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B136" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C136">
         <v>750</v>
@@ -12327,7 +12328,7 @@
         <v>417558</v>
       </c>
       <c r="E136" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F136">
         <v>34.9109701</v>
@@ -12400,12 +12401,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B137" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C137">
         <v>750</v>
@@ -12414,7 +12415,7 @@
         <v>417558</v>
       </c>
       <c r="E137" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F137">
         <v>34.9109701</v>
@@ -12487,12 +12488,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B138" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C138">
         <v>750</v>
@@ -12501,7 +12502,7 @@
         <v>417558</v>
       </c>
       <c r="E138" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F138">
         <v>34.9109701</v>
@@ -12574,12 +12575,12 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C139">
         <v>750</v>
@@ -12588,7 +12589,7 @@
         <v>417558</v>
       </c>
       <c r="E139" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F139">
         <v>34.9109701</v>
@@ -12661,12 +12662,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B140" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C140">
         <v>750</v>
@@ -12675,7 +12676,7 @@
         <v>417558</v>
       </c>
       <c r="E140" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F140">
         <v>34.9109701</v>
@@ -12748,12 +12749,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B141" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C141">
         <v>750</v>
@@ -12762,7 +12763,7 @@
         <v>417558</v>
       </c>
       <c r="E141" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F141">
         <v>34.9109701</v>
@@ -12781,12 +12782,12 @@
         <v>827.60283870000001</v>
       </c>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B142" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C142">
         <v>750</v>
@@ -12795,7 +12796,7 @@
         <v>417558</v>
       </c>
       <c r="E142" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F142">
         <v>34.9109701</v>
@@ -12868,12 +12869,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B143" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C143">
         <v>750</v>
@@ -12882,7 +12883,7 @@
         <v>417558</v>
       </c>
       <c r="E143" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F143">
         <v>34.9109701</v>
@@ -12955,12 +12956,12 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B144" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C144">
         <v>750</v>
@@ -12969,7 +12970,7 @@
         <v>417558</v>
       </c>
       <c r="E144" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F144">
         <v>34.9109701</v>
@@ -13042,12 +13043,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B145" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C145">
         <v>750</v>
@@ -13056,7 +13057,7 @@
         <v>417558</v>
       </c>
       <c r="E145" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F145">
         <v>34.9109701</v>
@@ -13129,12 +13130,12 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B146" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C146">
         <v>21000</v>
@@ -13143,7 +13144,7 @@
         <v>685</v>
       </c>
       <c r="E146" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F146">
         <v>33.402521999999998</v>
@@ -13216,12 +13217,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B147" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C147">
         <v>21000</v>
@@ -13230,7 +13231,7 @@
         <v>685</v>
       </c>
       <c r="E147" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F147">
         <v>33.402521999999998</v>
@@ -13303,12 +13304,12 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B148" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C148">
         <v>21000</v>
@@ -13317,7 +13318,7 @@
         <v>685</v>
       </c>
       <c r="E148" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F148">
         <v>33.402521999999998</v>
@@ -13390,12 +13391,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B149" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C149">
         <v>21000</v>
@@ -13404,7 +13405,7 @@
         <v>685</v>
       </c>
       <c r="E149" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F149">
         <v>33.402521999999998</v>
@@ -13477,12 +13478,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B150" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C150">
         <v>21000</v>
@@ -13491,7 +13492,7 @@
         <v>685</v>
       </c>
       <c r="E150" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F150">
         <v>33.402521999999998</v>
@@ -13564,12 +13565,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B151" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C151">
         <v>21000</v>
@@ -13578,7 +13579,7 @@
         <v>685</v>
       </c>
       <c r="E151" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F151">
         <v>33.402521999999998</v>
@@ -13651,12 +13652,12 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B152" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C152">
         <v>21000</v>
@@ -13665,7 +13666,7 @@
         <v>685</v>
       </c>
       <c r="E152" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F152">
         <v>33.402521999999998</v>
@@ -13738,12 +13739,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B153" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C153">
         <v>21000</v>
@@ -13752,7 +13753,7 @@
         <v>685</v>
       </c>
       <c r="E153" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F153">
         <v>33.402521999999998</v>
@@ -13825,12 +13826,12 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B154" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C154">
         <v>21000</v>
@@ -13839,7 +13840,7 @@
         <v>685</v>
       </c>
       <c r="E154" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F154">
         <v>33.402521999999998</v>
@@ -13912,12 +13913,12 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B155" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C155">
         <v>21000</v>
@@ -13926,7 +13927,7 @@
         <v>685</v>
       </c>
       <c r="E155" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F155">
         <v>33.402521999999998</v>
@@ -13999,12 +14000,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B156" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C156">
         <v>21000</v>
@@ -14013,7 +14014,7 @@
         <v>685</v>
       </c>
       <c r="E156" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F156">
         <v>33.402521999999998</v>
@@ -14032,12 +14033,12 @@
         <v>133631.92449999999</v>
       </c>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B157" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C157">
         <v>21000</v>
@@ -14046,7 +14047,7 @@
         <v>685</v>
       </c>
       <c r="E157" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F157">
         <v>33.402521999999998</v>
@@ -14119,12 +14120,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B158" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C158">
         <v>22000</v>
@@ -14133,7 +14134,7 @@
         <v>130000</v>
       </c>
       <c r="E158" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F158">
         <v>37.239896600000002</v>
@@ -14206,12 +14207,12 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B159" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C159">
         <v>22000</v>
@@ -14220,7 +14221,7 @@
         <v>130000</v>
       </c>
       <c r="E159" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F159">
         <v>37.239896600000002</v>
@@ -14293,12 +14294,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B160" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C160">
         <v>22000</v>
@@ -14307,7 +14308,7 @@
         <v>130000</v>
       </c>
       <c r="E160" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F160">
         <v>37.239896600000002</v>
@@ -14380,12 +14381,12 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B161" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C161">
         <v>22000</v>
@@ -14394,7 +14395,7 @@
         <v>130000</v>
       </c>
       <c r="E161" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F161">
         <v>37.239896600000002</v>
@@ -14467,12 +14468,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B162" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C162">
         <v>22000</v>
@@ -14481,7 +14482,7 @@
         <v>130000</v>
       </c>
       <c r="E162" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F162">
         <v>37.239896600000002</v>
@@ -14554,12 +14555,12 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B163" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C163">
         <v>22000</v>
@@ -14568,7 +14569,7 @@
         <v>130000</v>
       </c>
       <c r="E163" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F163">
         <v>37.239896600000002</v>
@@ -14641,12 +14642,12 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B164" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C164">
         <v>22000</v>
@@ -14655,7 +14656,7 @@
         <v>130000</v>
       </c>
       <c r="E164" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F164">
         <v>37.239896600000002</v>
@@ -14728,12 +14729,12 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B165" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C165">
         <v>22000</v>
@@ -14742,7 +14743,7 @@
         <v>130000</v>
       </c>
       <c r="E165" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F165">
         <v>37.239896600000002</v>
@@ -14815,12 +14816,12 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B166" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C166">
         <v>22000</v>
@@ -14829,7 +14830,7 @@
         <v>130000</v>
       </c>
       <c r="E166" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F166">
         <v>37.239896600000002</v>
@@ -14902,12 +14903,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B167" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C167">
         <v>22000</v>
@@ -14916,7 +14917,7 @@
         <v>130000</v>
       </c>
       <c r="E167" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F167">
         <v>37.239896600000002</v>
@@ -14989,12 +14990,12 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B168" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C168">
         <v>22000</v>
@@ -15003,7 +15004,7 @@
         <v>130000</v>
       </c>
       <c r="E168" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F168">
         <v>37.239896600000002</v>
@@ -15076,12 +15077,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B169" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C169">
         <v>22000</v>
@@ -15090,7 +15091,7 @@
         <v>130000</v>
       </c>
       <c r="E169" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F169">
         <v>37.239896600000002</v>
@@ -15163,12 +15164,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B170" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C170">
         <v>24000</v>
@@ -15177,7 +15178,7 @@
         <v>24330</v>
       </c>
       <c r="E170" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F170">
         <v>37.239896600000002</v>
@@ -15250,12 +15251,12 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B171" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C171">
         <v>24000</v>
@@ -15264,7 +15265,7 @@
         <v>24330</v>
       </c>
       <c r="E171" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F171">
         <v>37.239896600000002</v>
@@ -15337,12 +15338,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B172" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C172">
         <v>24000</v>
@@ -15351,7 +15352,7 @@
         <v>24330</v>
       </c>
       <c r="E172" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F172">
         <v>37.239896600000002</v>
@@ -15424,12 +15425,12 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B173" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C173">
         <v>24000</v>
@@ -15438,7 +15439,7 @@
         <v>24330</v>
       </c>
       <c r="E173" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F173">
         <v>37.239896600000002</v>
@@ -15511,12 +15512,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B174" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C174">
         <v>24000</v>
@@ -15525,7 +15526,7 @@
         <v>24330</v>
       </c>
       <c r="E174" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F174">
         <v>37.239896600000002</v>
@@ -15598,12 +15599,12 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C175">
         <v>24000</v>
@@ -15612,7 +15613,7 @@
         <v>24330</v>
       </c>
       <c r="E175" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F175">
         <v>37.239896600000002</v>
@@ -15685,12 +15686,12 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B176" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C176">
         <v>24000</v>
@@ -15699,7 +15700,7 @@
         <v>24330</v>
       </c>
       <c r="E176" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F176">
         <v>37.239896600000002</v>
@@ -15772,12 +15773,12 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B177" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C177">
         <v>24000</v>
@@ -15786,7 +15787,7 @@
         <v>24330</v>
       </c>
       <c r="E177" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F177">
         <v>37.239896600000002</v>
@@ -15859,12 +15860,12 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B178" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C178">
         <v>24000</v>
@@ -15873,7 +15874,7 @@
         <v>24330</v>
       </c>
       <c r="E178" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F178">
         <v>37.239896600000002</v>
@@ -15946,12 +15947,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B179" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C179">
         <v>24000</v>
@@ -15960,7 +15961,7 @@
         <v>24330</v>
       </c>
       <c r="E179" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F179">
         <v>37.239896600000002</v>
@@ -16033,12 +16034,12 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B180" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C180">
         <v>24000</v>
@@ -16047,7 +16048,7 @@
         <v>24330</v>
       </c>
       <c r="E180" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F180">
         <v>37.239896600000002</v>
@@ -16120,12 +16121,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B181" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C181">
         <v>24000</v>
@@ -16134,7 +16135,7 @@
         <v>24330</v>
       </c>
       <c r="E181" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H181">
         <v>202412</v>
